--- a/data/trans_orig/P24E-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P24E-Habitat-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>21606</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>14563</v>
+        <v>14820</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>29891</v>
+        <v>29667</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2770124304068168</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1867176662817806</v>
+        <v>0.1900040761326484</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.383232958904648</v>
+        <v>0.380355594544011</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>10</v>
@@ -764,19 +764,19 @@
         <v>9730</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>5671</v>
+        <v>5522</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>15074</v>
+        <v>15178</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3411836800075496</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1988650769004822</v>
+        <v>0.1936271812655992</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5285941819558372</v>
+        <v>0.5322542315723431</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>32</v>
@@ -785,19 +785,19 @@
         <v>31336</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>23353</v>
+        <v>23116</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>42019</v>
+        <v>41854</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2941932276743894</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2192511160302674</v>
+        <v>0.2170246723631049</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3944938129637406</v>
+        <v>0.3929411429390451</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>42322</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>34365</v>
+        <v>33123</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>51184</v>
+        <v>50690</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.5426104445599356</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.440588935319115</v>
+        <v>0.4246728616163166</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6562338514446497</v>
+        <v>0.6499002213368196</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>14</v>
@@ -835,19 +835,19 @@
         <v>13697</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>8722</v>
+        <v>7957</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>19543</v>
+        <v>18543</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.4802988215043495</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3058523164127515</v>
+        <v>0.2790263716675312</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.685296724445397</v>
+        <v>0.6502357901297761</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>56</v>
@@ -856,19 +856,19 @@
         <v>56019</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>45599</v>
+        <v>45825</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>66342</v>
+        <v>65273</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.5259275317322696</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4281072710058371</v>
+        <v>0.4302246240274523</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.622850923580917</v>
+        <v>0.6128136518642195</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>14069</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>8496</v>
+        <v>8134</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>21828</v>
+        <v>22354</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1803771250332476</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1089286042887138</v>
+        <v>0.1042906096795637</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2798607763745244</v>
+        <v>0.2865991397768721</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>5</v>
@@ -906,19 +906,19 @@
         <v>5091</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>1861</v>
+        <v>1856</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>10035</v>
+        <v>10015</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.178517498488101</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.06524909349449741</v>
+        <v>0.06509621126281782</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.351893441736278</v>
+        <v>0.3511941191207302</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>19</v>
@@ -927,19 +927,19 @@
         <v>19160</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>11755</v>
+        <v>12380</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>27000</v>
+        <v>28055</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1798792405933411</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1103593328379196</v>
+        <v>0.1162301571930423</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2534922665068201</v>
+        <v>0.2633907013225358</v>
       </c>
     </row>
     <row r="7">
@@ -1031,19 +1031,19 @@
         <v>37978</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>28034</v>
+        <v>27571</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>48725</v>
+        <v>48817</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3049066344883573</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.225072169911381</v>
+        <v>0.2213535464559104</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3911870399219078</v>
+        <v>0.3919319397939744</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>27</v>
@@ -1052,19 +1052,19 @@
         <v>30015</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>21579</v>
+        <v>21518</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>39913</v>
+        <v>40784</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3163371821490507</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2274257943972328</v>
+        <v>0.2267811985799373</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4206452718650343</v>
+        <v>0.4298252775480267</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>62</v>
@@ -1073,19 +1073,19 @@
         <v>67994</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>54879</v>
+        <v>55213</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>83841</v>
+        <v>84096</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3098491027852703</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2500833986655508</v>
+        <v>0.2516074257370588</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3820674852719789</v>
+        <v>0.3832262819648511</v>
       </c>
     </row>
     <row r="9">
@@ -1102,19 +1102,19 @@
         <v>65867</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>53700</v>
+        <v>55242</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>77297</v>
+        <v>79340</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.5288146634795914</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.4311351919452422</v>
+        <v>0.4435102006912185</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.6205816479113714</v>
+        <v>0.6369847254350579</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>50</v>
@@ -1123,19 +1123,19 @@
         <v>52928</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>42101</v>
+        <v>43143</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>62991</v>
+        <v>62131</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.5578218948200164</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.443707423929662</v>
+        <v>0.4546904191857488</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.6638756701648907</v>
+        <v>0.6548147347441745</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>109</v>
@@ -1144,19 +1144,19 @@
         <v>118796</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>102842</v>
+        <v>104453</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>132784</v>
+        <v>132573</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.5413571352435886</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.4686558338864877</v>
+        <v>0.4759937149864901</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.6051012729136315</v>
+        <v>0.6041388314059626</v>
       </c>
     </row>
     <row r="10">
@@ -1173,19 +1173,19 @@
         <v>20711</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>13345</v>
+        <v>13487</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>29757</v>
+        <v>30102</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1662787020320514</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1071413728607128</v>
+        <v>0.1082832978258835</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2389006244260299</v>
+        <v>0.2416764108931166</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>12</v>
@@ -1194,19 +1194,19 @@
         <v>11940</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>6074</v>
+        <v>6815</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>19299</v>
+        <v>19261</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1258409230309328</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.06401769228834238</v>
+        <v>0.07182842685889144</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2033989553542465</v>
+        <v>0.2029938799262731</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>32</v>
@@ -1215,19 +1215,19 @@
         <v>32651</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>23109</v>
+        <v>23601</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>45120</v>
+        <v>43920</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1487937619711411</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1053092236597851</v>
+        <v>0.1075525342829757</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2056149630406477</v>
+        <v>0.2001469213228656</v>
       </c>
     </row>
     <row r="11">
@@ -1319,19 +1319,19 @@
         <v>31545</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>22196</v>
+        <v>22426</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>41963</v>
+        <v>41103</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3463755880115796</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2437199307563083</v>
+        <v>0.2462432492841815</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.460773178891827</v>
+        <v>0.4513328951565911</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>26</v>
@@ -1340,19 +1340,19 @@
         <v>25939</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>18358</v>
+        <v>17821</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>33570</v>
+        <v>33741</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3983578545180217</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2819253188285812</v>
+        <v>0.2736875390797404</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.5155404976393981</v>
+        <v>0.5181643303905669</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>53</v>
@@ -1361,19 +1361,19 @@
         <v>57484</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>45919</v>
+        <v>45484</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>69777</v>
+        <v>70684</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3680475646567571</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.29400179688238</v>
+        <v>0.2912163666344868</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.4467540201468072</v>
+        <v>0.4525623488809236</v>
       </c>
     </row>
     <row r="13">
@@ -1390,19 +1390,19 @@
         <v>50443</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>39836</v>
+        <v>40384</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>60859</v>
+        <v>60450</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.5538890927845699</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4374122804142113</v>
+        <v>0.4434326946232864</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.6682575871831645</v>
+        <v>0.6637677008470301</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>32</v>
@@ -1411,19 +1411,19 @@
         <v>29835</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>22631</v>
+        <v>22174</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>38368</v>
+        <v>38222</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.4581841574672123</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.34754433172858</v>
+        <v>0.3405340001720601</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.5892322556582705</v>
+        <v>0.5869764649510999</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>78</v>
@@ -1432,19 +1432,19 @@
         <v>80278</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>67797</v>
+        <v>67184</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>92115</v>
+        <v>94010</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.5139886563007365</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.434073128057562</v>
+        <v>0.4301539286530665</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5897752172224749</v>
+        <v>0.6019053550383642</v>
       </c>
     </row>
     <row r="14">
@@ -1461,19 +1461,19 @@
         <v>9083</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>4311</v>
+        <v>4215</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>15753</v>
+        <v>16352</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.09973531920385043</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.04734058751214584</v>
+        <v>0.04627784320995895</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1729792416039404</v>
+        <v>0.1795523909174187</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>9</v>
@@ -1482,19 +1482,19 @@
         <v>9341</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>4532</v>
+        <v>4410</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>15796</v>
+        <v>16349</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1434579880147659</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.06960144386096979</v>
+        <v>0.06772043354768906</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2425776562858542</v>
+        <v>0.2510784734813377</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>18</v>
@@ -1503,19 +1503,19 @@
         <v>18424</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>11243</v>
+        <v>11628</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>27330</v>
+        <v>27626</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1179637790425064</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.07198505898211081</v>
+        <v>0.0744509207069696</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1749814810013607</v>
+        <v>0.1768802045730343</v>
       </c>
     </row>
     <row r="15">
@@ -1607,19 +1607,19 @@
         <v>42638</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>33231</v>
+        <v>32698</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>53278</v>
+        <v>52457</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.368505779805563</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.287210327217692</v>
+        <v>0.2825994309971749</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4604648885158687</v>
+        <v>0.4533723642530361</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>41</v>
@@ -1628,19 +1628,19 @@
         <v>43812</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>32770</v>
+        <v>33891</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>53906</v>
+        <v>54254</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4076105737071726</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.304886971144369</v>
+        <v>0.315312549198699</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5015297827568809</v>
+        <v>0.5047659351632429</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>86</v>
@@ -1649,19 +1649,19 @@
         <v>86449</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>72616</v>
+        <v>72297</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>101145</v>
+        <v>100846</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3873380226912384</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3253564991766075</v>
+        <v>0.3239289652576346</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4531836611933657</v>
+        <v>0.4518432745316006</v>
       </c>
     </row>
     <row r="17">
@@ -1678,19 +1678,19 @@
         <v>59717</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>49162</v>
+        <v>49733</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>69898</v>
+        <v>71032</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.516117661374675</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4248904864120274</v>
+        <v>0.4298281851263593</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6041094796578722</v>
+        <v>0.6139128180053772</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>45</v>
@@ -1699,19 +1699,19 @@
         <v>46624</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>37128</v>
+        <v>35454</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>57873</v>
+        <v>56479</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.4337754320765411</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3454324043045628</v>
+        <v>0.3298507592077097</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5384358869270672</v>
+        <v>0.5254646628852957</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>109</v>
@@ -1720,19 +1720,19 @@
         <v>106341</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>92099</v>
+        <v>92054</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>120758</v>
+        <v>121739</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.476462961600727</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.412652715598834</v>
+        <v>0.4124490200283563</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.5410610848926435</v>
+        <v>0.5454566618471748</v>
       </c>
     </row>
     <row r="18">
@@ -1749,19 +1749,19 @@
         <v>13350</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>7663</v>
+        <v>7780</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>21469</v>
+        <v>21336</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1153765588197621</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.06623113098351942</v>
+        <v>0.06723905179688773</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.185550421839341</v>
+        <v>0.1844037627735479</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>16</v>
@@ -1770,19 +1770,19 @@
         <v>17048</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>10402</v>
+        <v>10429</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>26613</v>
+        <v>26097</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1586139942162863</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.09677740062531953</v>
+        <v>0.09702592507617101</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2475999580070382</v>
+        <v>0.2427954428565597</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>30</v>
@@ -1791,19 +1791,19 @@
         <v>30398</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>21362</v>
+        <v>21271</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>41670</v>
+        <v>42955</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1361990157080345</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.09571429853602366</v>
+        <v>0.09530529998640976</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1867042835840019</v>
+        <v>0.1924626549744137</v>
       </c>
     </row>
     <row r="19">
@@ -1895,19 +1895,19 @@
         <v>133766</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>114358</v>
+        <v>117055</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>153228</v>
+        <v>154299</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3267953291188058</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2793801995965309</v>
+        <v>0.285969536936904</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3743404287150507</v>
+        <v>0.3769575226624368</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>104</v>
@@ -1916,19 +1916,19 @@
         <v>109496</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>93765</v>
+        <v>93438</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>126556</v>
+        <v>127155</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3699174464311785</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3167721727783087</v>
+        <v>0.3156651225304464</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.427552435019493</v>
+        <v>0.4295734753210846</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>233</v>
@@ -1937,19 +1937,19 @@
         <v>243263</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>219459</v>
+        <v>215940</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>267978</v>
+        <v>268421</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3448921286804566</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3111435896595147</v>
+        <v>0.3061546972233561</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3799330488566386</v>
+        <v>0.3805612752713329</v>
       </c>
     </row>
     <row r="21">
@@ -1966,19 +1966,19 @@
         <v>218349</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>197952</v>
+        <v>198554</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>237980</v>
+        <v>238363</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.5334331431278327</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.4836022829528197</v>
+        <v>0.485073901592554</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.5813922785524207</v>
+        <v>0.5823282495542014</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>141</v>
@@ -1987,19 +1987,19 @@
         <v>143085</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>126631</v>
+        <v>127650</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>162609</v>
+        <v>161263</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.4833906273413048</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.4278059427603758</v>
+        <v>0.4312474600113824</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.549350940204441</v>
+        <v>0.5448048634894723</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>352</v>
@@ -2008,19 +2008,19 @@
         <v>361434</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>336126</v>
+        <v>335616</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>388097</v>
+        <v>390486</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.5124321015697527</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.4765509706758362</v>
+        <v>0.4758289991410493</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.5502349491889814</v>
+        <v>0.5536221714144495</v>
       </c>
     </row>
     <row r="22">
@@ -2037,19 +2037,19 @@
         <v>57212</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>44049</v>
+        <v>42870</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>73089</v>
+        <v>71848</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1397715277533616</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1076125568381665</v>
+        <v>0.1047337071628688</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1785591125203173</v>
+        <v>0.1755263075971692</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>42</v>
@@ -2058,19 +2058,19 @@
         <v>43421</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>31915</v>
+        <v>32754</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>56856</v>
+        <v>57030</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1466919262275166</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1078200847224752</v>
+        <v>0.1106534879474283</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1920801487515522</v>
+        <v>0.1926676151804067</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>99</v>
@@ -2079,19 +2079,19 @@
         <v>100634</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>84572</v>
+        <v>81974</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>119735</v>
+        <v>119573</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1426757697497907</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1199040877704737</v>
+        <v>0.1162203071023862</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1697572062908385</v>
+        <v>0.1695283327798379</v>
       </c>
     </row>
     <row r="23">
@@ -2423,19 +2423,19 @@
         <v>53922</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>42375</v>
+        <v>41553</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>65396</v>
+        <v>65541</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4181004270261851</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3285637508950164</v>
+        <v>0.3221939265408569</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5070641638940389</v>
+        <v>0.5081912873244376</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>36</v>
@@ -2444,19 +2444,19 @@
         <v>42092</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>32362</v>
+        <v>32464</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>52233</v>
+        <v>52575</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4423620361914223</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3401081340252632</v>
+        <v>0.3411765374924113</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5489446447999394</v>
+        <v>0.5525407319409746</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>88</v>
@@ -2465,19 +2465,19 @@
         <v>96013</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>80013</v>
+        <v>81178</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>112370</v>
+        <v>112538</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4284008566861906</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3570096648365944</v>
+        <v>0.3622086129224572</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5013838352524981</v>
+        <v>0.5021336616755987</v>
       </c>
     </row>
     <row r="5">
@@ -2494,19 +2494,19 @@
         <v>60354</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>49913</v>
+        <v>48396</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>72045</v>
+        <v>72095</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4679746144257046</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.387018474148524</v>
+        <v>0.3752520513916572</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5586243411603756</v>
+        <v>0.5590099654277847</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>40</v>
@@ -2515,19 +2515,19 @@
         <v>43054</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>33610</v>
+        <v>33713</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>53501</v>
+        <v>53850</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.4524725873114004</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3532194225921121</v>
+        <v>0.3543120395299185</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5622656191799381</v>
+        <v>0.5659409513838508</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>96</v>
@@ -2536,19 +2536,19 @@
         <v>103407</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>87188</v>
+        <v>87831</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>118786</v>
+        <v>120192</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.4613931243526068</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3890217884525987</v>
+        <v>0.3918944111798504</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5300085516676679</v>
+        <v>0.5362861913767067</v>
       </c>
     </row>
     <row r="6">
@@ -2565,19 +2565,19 @@
         <v>14693</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>7647</v>
+        <v>8049</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>24305</v>
+        <v>25175</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1139249585481103</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.05929110675133203</v>
+        <v>0.06240985837096216</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1884586457082609</v>
+        <v>0.1952011331167325</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>10</v>
@@ -2586,19 +2586,19 @@
         <v>10007</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>5249</v>
+        <v>4887</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>17010</v>
+        <v>17296</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1051653764971772</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.05516001733184994</v>
+        <v>0.05135979316098851</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1787675620650583</v>
+        <v>0.1817757310814782</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>22</v>
@@ -2607,19 +2607,19 @@
         <v>24699</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>15418</v>
+        <v>15273</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>35876</v>
+        <v>35814</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1102060189612026</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.06879270236479611</v>
+        <v>0.06814529785088021</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1600749265028141</v>
+        <v>0.1597982186233562</v>
       </c>
     </row>
     <row r="7">
@@ -2711,19 +2711,19 @@
         <v>76413</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>62481</v>
+        <v>62396</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>90968</v>
+        <v>91550</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3872990726037036</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3166871499299979</v>
+        <v>0.3162577348537364</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4610741801796162</v>
+        <v>0.4640238057719894</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>68</v>
@@ -2732,19 +2732,19 @@
         <v>73436</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>62649</v>
+        <v>61741</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>86283</v>
+        <v>85693</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4936331548015711</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.4211234055206406</v>
+        <v>0.4150186678926514</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5799848704103177</v>
+        <v>0.5760245946971579</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>136</v>
@@ -2753,19 +2753,19 @@
         <v>149848</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>131160</v>
+        <v>132141</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>167039</v>
+        <v>172719</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.4330103796731342</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3790063997111061</v>
+        <v>0.3818423524021144</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4826859588946701</v>
+        <v>0.4990988072971001</v>
       </c>
     </row>
     <row r="9">
@@ -2782,19 +2782,19 @@
         <v>96491</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>82181</v>
+        <v>79900</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>111289</v>
+        <v>110647</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.4890647592252537</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.4165358191646615</v>
+        <v>0.4049756997693512</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.5640722405829357</v>
+        <v>0.5608149649956448</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>59</v>
@@ -2803,19 +2803,19 @@
         <v>63876</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>50746</v>
+        <v>51154</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>75054</v>
+        <v>76047</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.4293662646005988</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.341112225984031</v>
+        <v>0.3438538151914898</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.5045091028851885</v>
+        <v>0.5111823206726474</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>146</v>
@@ -2824,19 +2824,19 @@
         <v>160366</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>140500</v>
+        <v>139664</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>177017</v>
+        <v>179134</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.4634013391536684</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.405995243676823</v>
+        <v>0.403582303620095</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.5115168046346986</v>
+        <v>0.5176352655620959</v>
       </c>
     </row>
     <row r="10">
@@ -2853,19 +2853,19 @@
         <v>24393</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>15539</v>
+        <v>14424</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>36857</v>
+        <v>35882</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1236361681710427</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.07876029154833475</v>
+        <v>0.07310632468692702</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1868106442846402</v>
+        <v>0.1818695003558971</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>11</v>
@@ -2874,19 +2874,19 @@
         <v>11455</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>6212</v>
+        <v>6128</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>19849</v>
+        <v>19536</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.07700058059783009</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0417574770408097</v>
+        <v>0.04119295975479528</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1334257178878545</v>
+        <v>0.1313162030657394</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>30</v>
@@ -2895,19 +2895,19 @@
         <v>35848</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>24708</v>
+        <v>23576</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>49894</v>
+        <v>48469</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1035882811731974</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.07139644647091249</v>
+        <v>0.06812697170011783</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1441760771326545</v>
+        <v>0.1400585462755175</v>
       </c>
     </row>
     <row r="11">
@@ -2999,19 +2999,19 @@
         <v>51003</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>39493</v>
+        <v>39953</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>63410</v>
+        <v>64237</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3498508664167409</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2709001435527192</v>
+        <v>0.2740593930002228</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4349597878199425</v>
+        <v>0.4406297123125851</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>39</v>
@@ -3020,19 +3020,19 @@
         <v>43371</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>30538</v>
+        <v>33015</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>54642</v>
+        <v>54702</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3822990438118131</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2691817988891617</v>
+        <v>0.2910150839525712</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.4816410989786401</v>
+        <v>0.4821731027304397</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>87</v>
@@ -3041,19 +3041,19 @@
         <v>94374</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>78488</v>
+        <v>78502</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>113804</v>
+        <v>110817</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3640512773190271</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.3027683432994481</v>
+        <v>0.3028244689640184</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.439001285032311</v>
+        <v>0.4274789828524597</v>
       </c>
     </row>
     <row r="13">
@@ -3070,19 +3070,19 @@
         <v>73676</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>60230</v>
+        <v>61156</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>85742</v>
+        <v>86501</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.5053792320186574</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4131427955185603</v>
+        <v>0.4194976268265672</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5881420423315232</v>
+        <v>0.5933533873443061</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>42</v>
@@ -3091,19 +3091,19 @@
         <v>49791</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>38626</v>
+        <v>38351</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>62186</v>
+        <v>61925</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.4388855189551384</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3404715237402404</v>
+        <v>0.3380480554509397</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.5481407710183936</v>
+        <v>0.545837235393998</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>105</v>
@@ -3112,19 +3112,19 @@
         <v>123468</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>105195</v>
+        <v>106141</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>139870</v>
+        <v>140802</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4762793526502683</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4057931698168247</v>
+        <v>0.4094416938206961</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5395515446982287</v>
+        <v>0.5431453937646319</v>
       </c>
     </row>
     <row r="14">
@@ -3141,19 +3141,19 @@
         <v>21105</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>12864</v>
+        <v>13089</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>31182</v>
+        <v>31313</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1447699015646017</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.08824110777116104</v>
+        <v>0.08978392067784992</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2138928251285217</v>
+        <v>0.2147900120148374</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>17</v>
@@ -3162,19 +3162,19 @@
         <v>20286</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>11873</v>
+        <v>12511</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>31415</v>
+        <v>31298</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1788154372330485</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1046536039179978</v>
+        <v>0.1102750013966822</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2769041831506683</v>
+        <v>0.2758772446808071</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>36</v>
@@ -3183,19 +3183,19 @@
         <v>41392</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>30117</v>
+        <v>30050</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>55400</v>
+        <v>56161</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1596693700307046</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1161761414519377</v>
+        <v>0.1159165600920756</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.213707697462012</v>
+        <v>0.2166423377782473</v>
       </c>
     </row>
     <row r="15">
@@ -3287,19 +3287,19 @@
         <v>58782</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>47212</v>
+        <v>47009</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>70948</v>
+        <v>71739</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.396572872290405</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3185157382925731</v>
+        <v>0.317145913955838</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4786542265215845</v>
+        <v>0.4839909086311646</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>63</v>
@@ -3308,19 +3308,19 @@
         <v>63650</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>51600</v>
+        <v>52429</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>74828</v>
+        <v>74918</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4836041425368169</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3920523916029837</v>
+        <v>0.3983506142831719</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5685314100137191</v>
+        <v>0.5692163257482147</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>122</v>
@@ -3329,19 +3329,19 @@
         <v>122432</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>106259</v>
+        <v>106859</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>141222</v>
+        <v>140735</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.4375058486370781</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3797121678183659</v>
+        <v>0.3818574939956496</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5046536476870457</v>
+        <v>0.5029137342187752</v>
       </c>
     </row>
     <row r="17">
@@ -3358,19 +3358,19 @@
         <v>68299</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>57027</v>
+        <v>55515</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>81702</v>
+        <v>80271</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.4607804259160362</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3847320222930053</v>
+        <v>0.3745357316289527</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5512030894760609</v>
+        <v>0.5415508172879946</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>43</v>
@@ -3379,19 +3379,19 @@
         <v>45353</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>34532</v>
+        <v>34562</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>56631</v>
+        <v>57163</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3445886083778176</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2623692414687776</v>
+        <v>0.2625997354411463</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4302744370506907</v>
+        <v>0.4343133980582153</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>110</v>
@@ -3400,19 +3400,19 @@
         <v>113652</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>96929</v>
+        <v>96301</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>130747</v>
+        <v>130480</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.4061325171183942</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3463714660642942</v>
+        <v>0.3441283096635162</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4672203255372736</v>
+        <v>0.4662673833273269</v>
       </c>
     </row>
     <row r="18">
@@ -3429,19 +3429,19 @@
         <v>21144</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>13612</v>
+        <v>13110</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>32052</v>
+        <v>31612</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1426467017935588</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.09183288316868042</v>
+        <v>0.08844399504564145</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2162378086502713</v>
+        <v>0.2132746357376671</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>21</v>
@@ -3450,19 +3450,19 @@
         <v>22613</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>14110</v>
+        <v>15191</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>32439</v>
+        <v>34307</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1718072490853655</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1072038859684416</v>
+        <v>0.1154201140729291</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2464699891334164</v>
+        <v>0.2606622558892965</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>40</v>
@@ -3471,19 +3471,19 @@
         <v>43756</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>32440</v>
+        <v>31855</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>57164</v>
+        <v>58352</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1563616342445278</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.115922422337873</v>
+        <v>0.1138340623189677</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2042741076565931</v>
+        <v>0.2085190455339268</v>
       </c>
     </row>
     <row r="19">
@@ -3575,19 +3575,19 @@
         <v>240119</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>215106</v>
+        <v>214245</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>265324</v>
+        <v>267626</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.387117933726461</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3467927825103572</v>
+        <v>0.3454050790594896</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4277534387790796</v>
+        <v>0.4314645460506028</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>206</v>
@@ -3596,19 +3596,19 @@
         <v>222549</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>200998</v>
+        <v>201051</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>246460</v>
+        <v>245058</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.4551261216259911</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.411052678150856</v>
+        <v>0.4111610251533833</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5040247500504481</v>
+        <v>0.5011592748814391</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>433</v>
@@ -3617,19 +3617,19 @@
         <v>462668</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>428431</v>
+        <v>429292</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>497594</v>
+        <v>496054</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.4170973709992102</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3862327100154795</v>
+        <v>0.3870085012873993</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.448583446896749</v>
+        <v>0.4471950505643372</v>
       </c>
     </row>
     <row r="21">
@@ -3646,19 +3646,19 @@
         <v>298820</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>273763</v>
+        <v>273044</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>325978</v>
+        <v>324755</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.4817550852355855</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.4413587534125671</v>
+        <v>0.4401989963695129</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.5255402342807131</v>
+        <v>0.5235678336788262</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>184</v>
@@ -3667,19 +3667,19 @@
         <v>202073</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>178243</v>
+        <v>180045</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>223504</v>
+        <v>223875</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.4132522181000173</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.3645184995950032</v>
+        <v>0.3682036463983131</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.4570802721936963</v>
+        <v>0.4578378688666523</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>457</v>
@@ -3688,19 +3688,19 @@
         <v>500893</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>469824</v>
+        <v>466765</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>536079</v>
+        <v>536459</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.4515575829682382</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.4235484307030039</v>
+        <v>0.420790766099661</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.4832781757849252</v>
+        <v>0.4836209523534279</v>
       </c>
     </row>
     <row r="22">
@@ -3717,19 +3717,19 @@
         <v>81335</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>64234</v>
+        <v>65487</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>101527</v>
+        <v>102590</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1311269810379536</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1035577990356174</v>
+        <v>0.1055775134454515</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1636816004963403</v>
+        <v>0.1653950779251201</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>59</v>
@@ -3738,19 +3738,19 @@
         <v>64361</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>50674</v>
+        <v>47498</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>82713</v>
+        <v>79183</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1316216602739916</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1036309769762696</v>
+        <v>0.09713631261415327</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1691524556079846</v>
+        <v>0.1619346797863311</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>128</v>
@@ -3759,19 +3759,19 @@
         <v>145695</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>121817</v>
+        <v>122673</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>170893</v>
+        <v>170243</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1313450460325516</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1098188545949616</v>
+        <v>0.1105900902662017</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1540613236831399</v>
+        <v>0.1534744950713539</v>
       </c>
     </row>
     <row r="23">
@@ -4103,19 +4103,19 @@
         <v>23154</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>15660</v>
+        <v>15128</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>33241</v>
+        <v>32546</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2119570486577317</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1433559872282888</v>
+        <v>0.138491262588617</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3043052074365712</v>
+        <v>0.2979358809144458</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>22</v>
@@ -4124,19 +4124,19 @@
         <v>21126</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>14275</v>
+        <v>14469</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>28897</v>
+        <v>28693</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.322862017252644</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2181608697730573</v>
+        <v>0.2211258567270978</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4416175691252914</v>
+        <v>0.4385027793183752</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>45</v>
@@ -4145,19 +4145,19 @@
         <v>44280</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>34036</v>
+        <v>33726</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>56794</v>
+        <v>56372</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2535035689123211</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1948575601784207</v>
+        <v>0.1930822021572219</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3251487860186563</v>
+        <v>0.3227321186473242</v>
       </c>
     </row>
     <row r="5">
@@ -4174,19 +4174,19 @@
         <v>62894</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>52452</v>
+        <v>51540</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>72917</v>
+        <v>72533</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.5757617045609053</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4801703273816241</v>
+        <v>0.4718147388578163</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6675083929437555</v>
+        <v>0.6639975902984082</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>35</v>
@@ -4195,19 +4195,19 @@
         <v>34413</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>26036</v>
+        <v>26619</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>42044</v>
+        <v>42530</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.5259229741999543</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3979032938105676</v>
+        <v>0.4068090823935179</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6425332620371407</v>
+        <v>0.6499689702350203</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>93</v>
@@ -4216,19 +4216,19 @@
         <v>97308</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>83623</v>
+        <v>83683</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>109038</v>
+        <v>110498</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.5570914335474634</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4787463432126406</v>
+        <v>0.4790895714472548</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6242498463172923</v>
+        <v>0.6326064517046711</v>
       </c>
     </row>
     <row r="6">
@@ -4245,19 +4245,19 @@
         <v>23189</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>15584</v>
+        <v>15072</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>31891</v>
+        <v>33574</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.212281246781363</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1426633253907938</v>
+        <v>0.1379735096261782</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2919431001295927</v>
+        <v>0.3073491795535181</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>10</v>
@@ -4266,19 +4266,19 @@
         <v>9895</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>5257</v>
+        <v>5289</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>17078</v>
+        <v>17058</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1512150085474018</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.08034312554499903</v>
+        <v>0.08083449352406485</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2609927701334942</v>
+        <v>0.2606946865990825</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>33</v>
@@ -4287,19 +4287,19 @@
         <v>33084</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>23652</v>
+        <v>23514</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>44783</v>
+        <v>44282</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1894049975402155</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1354094693322885</v>
+        <v>0.1346185084247496</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2563873540574185</v>
+        <v>0.2535153860287611</v>
       </c>
     </row>
     <row r="7">
@@ -4391,19 +4391,19 @@
         <v>36558</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>26503</v>
+        <v>25928</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>48841</v>
+        <v>48837</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2345883813873357</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1700626450716516</v>
+        <v>0.1663731544431802</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.313403148624751</v>
+        <v>0.3133774978427903</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>37</v>
@@ -4412,19 +4412,19 @@
         <v>37368</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>27442</v>
+        <v>28413</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>48449</v>
+        <v>49836</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2699644243256238</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1982555671852741</v>
+        <v>0.2052669388974882</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3500135524384666</v>
+        <v>0.3600386643494358</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>69</v>
@@ -4433,19 +4433,19 @@
         <v>73927</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>59326</v>
+        <v>59613</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>89582</v>
+        <v>90921</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2512291819341541</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2016099349857508</v>
+        <v>0.2025872022144536</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3044299276558905</v>
+        <v>0.3089819184270268</v>
       </c>
     </row>
     <row r="9">
@@ -4462,19 +4462,19 @@
         <v>84516</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>70840</v>
+        <v>70938</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>97485</v>
+        <v>97363</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.5423237843196558</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.4545648610652617</v>
+        <v>0.4551922033295991</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.6255388870869351</v>
+        <v>0.6247569604279983</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>78</v>
@@ -4483,19 +4483,19 @@
         <v>80156</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>67603</v>
+        <v>67860</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>92122</v>
+        <v>90762</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.5790799443049617</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.4883951000481666</v>
+        <v>0.490247874896886</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.6655322273514767</v>
+        <v>0.6557038954494154</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>154</v>
@@ -4504,19 +4504,19 @@
         <v>164672</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>147940</v>
+        <v>146881</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>184142</v>
+        <v>182397</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.5596137884122396</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.5027521656013954</v>
+        <v>0.4991537560467568</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.625781325715451</v>
+        <v>0.6198510501065423</v>
       </c>
     </row>
     <row r="10">
@@ -4533,19 +4533,19 @@
         <v>34766</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>24857</v>
+        <v>24481</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>47465</v>
+        <v>47996</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2230878342930085</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1595047752736277</v>
+        <v>0.1570883587426289</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3045755503189028</v>
+        <v>0.3079807682114959</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>18</v>
@@ -4554,19 +4554,19 @@
         <v>20895</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>12847</v>
+        <v>12193</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>31255</v>
+        <v>30900</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1509556313694145</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.09281531169109629</v>
+        <v>0.08808964317330018</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2258020201750739</v>
+        <v>0.2232367565037274</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>49</v>
@@ -4575,19 +4575,19 @@
         <v>55661</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>41610</v>
+        <v>41815</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>71169</v>
+        <v>70909</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1891570296536062</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1414070376439708</v>
+        <v>0.1421025816194426</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2418573953478661</v>
+        <v>0.2409740502293699</v>
       </c>
     </row>
     <row r="11">
@@ -4679,19 +4679,19 @@
         <v>33246</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>23986</v>
+        <v>23571</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>44424</v>
+        <v>44102</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2985642253231045</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2154062363803451</v>
+        <v>0.2116809292748076</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3989444316556729</v>
+        <v>0.3960520542039931</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>24</v>
@@ -4700,19 +4700,19 @@
         <v>24576</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>17000</v>
+        <v>16506</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>32797</v>
+        <v>32582</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3435343407285616</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2376270848563359</v>
+        <v>0.2307330147037178</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.4584551236415235</v>
+        <v>0.4554490668365932</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>53</v>
@@ -4721,19 +4721,19 @@
         <v>57822</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>45434</v>
+        <v>44789</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>71112</v>
+        <v>70904</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3161544775027977</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2484212075099361</v>
+        <v>0.2448918194424697</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3888204589319905</v>
+        <v>0.3876818837744739</v>
       </c>
     </row>
     <row r="13">
@@ -4750,19 +4750,19 @@
         <v>63410</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>52417</v>
+        <v>51868</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>74527</v>
+        <v>73886</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.5694540801459329</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4707300686987266</v>
+        <v>0.4658007122474475</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.6692847316464329</v>
+        <v>0.6635309248303389</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>34</v>
@@ -4771,19 +4771,19 @@
         <v>35777</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>27575</v>
+        <v>28087</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>43791</v>
+        <v>44984</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.5001117998813392</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3854545317710006</v>
+        <v>0.3926108110618934</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.6121323879369874</v>
+        <v>0.6288013461862766</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>92</v>
@@ -4792,19 +4792,19 @@
         <v>99187</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>83381</v>
+        <v>86126</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>112659</v>
+        <v>113525</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.5423305518745078</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4559067528951254</v>
+        <v>0.4709124335634377</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.6159908816568961</v>
+        <v>0.620725510164672</v>
       </c>
     </row>
     <row r="14">
@@ -4821,19 +4821,19 @@
         <v>14697</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>8019</v>
+        <v>8173</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>23799</v>
+        <v>23183</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1319816945309626</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.07201296377454001</v>
+        <v>0.07340148772789011</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2137258181769942</v>
+        <v>0.2081971834366938</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>11</v>
@@ -4842,19 +4842,19 @@
         <v>11185</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>6212</v>
+        <v>5996</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>18782</v>
+        <v>18696</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.156353859390099</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.08683087170870166</v>
+        <v>0.08381613420106972</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2625379301410048</v>
+        <v>0.261340205506877</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>24</v>
@@ -4863,19 +4863,19 @@
         <v>25882</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>16750</v>
+        <v>16960</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>36948</v>
+        <v>36623</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1415149706226944</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.09158464242675368</v>
+        <v>0.09273349981770872</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2020203772380662</v>
+        <v>0.2002437884889476</v>
       </c>
     </row>
     <row r="15">
@@ -4967,19 +4967,19 @@
         <v>38224</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>27810</v>
+        <v>28983</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>47972</v>
+        <v>49490</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3122605979027058</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2271803828256666</v>
+        <v>0.2367680157068285</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3918892080295126</v>
+        <v>0.4042887671524696</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>37</v>
@@ -4988,19 +4988,19 @@
         <v>40642</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>31437</v>
+        <v>29695</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>52120</v>
+        <v>51124</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3332279101241855</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.257755081794871</v>
+        <v>0.2434699249391914</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4273362818496175</v>
+        <v>0.4191762083771</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>75</v>
@@ -5009,19 +5009,19 @@
         <v>78866</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>64710</v>
+        <v>65673</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>95150</v>
+        <v>94176</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3227250280457854</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2647968982364698</v>
+        <v>0.2687367456812118</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.389360276397173</v>
+        <v>0.3853763594368473</v>
       </c>
     </row>
     <row r="17">
@@ -5038,19 +5038,19 @@
         <v>62069</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>51236</v>
+        <v>51310</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>73592</v>
+        <v>73593</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.507048222974447</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4185576087158853</v>
+        <v>0.4191581572296875</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6011812248229309</v>
+        <v>0.601191560315005</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>54</v>
@@ -5059,19 +5059,19 @@
         <v>56765</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>45675</v>
+        <v>46999</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>68020</v>
+        <v>69227</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.4654280804285434</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3744959241118589</v>
+        <v>0.3853506148535684</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5577038971724705</v>
+        <v>0.5676044270985371</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>116</v>
@@ -5080,19 +5080,19 @@
         <v>118834</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>101873</v>
+        <v>105105</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>134860</v>
+        <v>133661</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.4862763152727794</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4168714321805584</v>
+        <v>0.4300969303141241</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.5518570401939028</v>
+        <v>0.5469506789470293</v>
       </c>
     </row>
     <row r="18">
@@ -5109,19 +5109,19 @@
         <v>22119</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>13879</v>
+        <v>14472</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>31821</v>
+        <v>31747</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1806911791228472</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1133834034677871</v>
+        <v>0.118227640782525</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.259953386109103</v>
+        <v>0.2593442493775447</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>24</v>
@@ -5130,19 +5130,19 @@
         <v>24557</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>16543</v>
+        <v>17198</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>34007</v>
+        <v>34867</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2013440094472711</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1356370112750161</v>
+        <v>0.1410126472690497</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2788275903121242</v>
+        <v>0.2858833425609627</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>45</v>
@@ -5151,19 +5151,19 @@
         <v>46675</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>35322</v>
+        <v>36243</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>59809</v>
+        <v>60591</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1909986566814352</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1445407161468441</v>
+        <v>0.1483103697065503</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2447406979889432</v>
+        <v>0.2479421627895195</v>
       </c>
     </row>
     <row r="19">
@@ -5255,19 +5255,19 @@
         <v>131182</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>109343</v>
+        <v>112724</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>150187</v>
+        <v>151505</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.262973519865515</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2191938148241854</v>
+        <v>0.2259719875164632</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3010712683413113</v>
+        <v>0.3037134067406382</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>120</v>
@@ -5276,19 +5276,19 @@
         <v>123712</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>106473</v>
+        <v>105949</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>141557</v>
+        <v>142971</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3113385587325899</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.267954135870157</v>
+        <v>0.2666353516332444</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.356248512328872</v>
+        <v>0.359806262175597</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>242</v>
@@ -5297,19 +5297,19 @@
         <v>254894</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>229026</v>
+        <v>230258</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>283538</v>
+        <v>284553</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2844175848678292</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.255553557273012</v>
+        <v>0.2569276754903057</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3163790141808084</v>
+        <v>0.3175121570117327</v>
       </c>
     </row>
     <row r="21">
@@ -5326,19 +5326,19 @@
         <v>272889</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>250237</v>
+        <v>249478</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>298171</v>
+        <v>294065</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.5470457858524181</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.5016364027995303</v>
+        <v>0.5001142926114276</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.5977272614334412</v>
+        <v>0.5894961801977786</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>201</v>
@@ -5347,19 +5347,19 @@
         <v>207111</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>189114</v>
+        <v>187925</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>226997</v>
+        <v>227857</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.5212250990859787</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.4759333290163758</v>
+        <v>0.4729404667455104</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.5712704036113873</v>
+        <v>0.5734342327107399</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>455</v>
@@ -5368,19 +5368,19 @@
         <v>480001</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>450388</v>
+        <v>448764</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>509006</v>
+        <v>510113</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.5355974235974906</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.5025543017725316</v>
+        <v>0.5007420700101816</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.567962305280749</v>
+        <v>0.5691975842274113</v>
       </c>
     </row>
     <row r="22">
@@ -5397,19 +5397,19 @@
         <v>94770</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>77159</v>
+        <v>77327</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>113403</v>
+        <v>116145</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1899806942820668</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1546755436849299</v>
+        <v>0.155013010339281</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2273322678171911</v>
+        <v>0.2328293353811144</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>63</v>
@@ -5418,19 +5418,19 @@
         <v>66532</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>52583</v>
+        <v>50743</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>82932</v>
+        <v>81956</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1674363421814314</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1323334025522288</v>
+        <v>0.1277028649224475</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2087098610260536</v>
+        <v>0.2062548359518638</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>151</v>
@@ -5439,19 +5439,19 @@
         <v>161302</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>138605</v>
+        <v>139601</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>184556</v>
+        <v>188890</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1799849915346802</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1546595605437011</v>
+        <v>0.155769895000955</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.205932880218383</v>
+        <v>0.2107679469270459</v>
       </c>
     </row>
     <row r="23">
